--- a/test/output/Dth密度閥值.xlsx
+++ b/test/output/Dth密度閥值.xlsx
@@ -1,52 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D7F9731-F258-4293-80BD-415837845C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CE67CC-9D9F-4183-A5ED-1468F3F8F2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>AVG_LIFETIME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-DSR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NRCA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optimal LEACH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>my</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -70,6 +41,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>special</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>special2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1.3/1.7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -78,15 +57,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>sensors 800</t>
+    <t>1//3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>special</t>
+    <t>1//4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>special2</t>
+    <t>2//3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2//4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2//2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -94,6 +81,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -153,11 +143,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -221,7 +219,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>E-DSR</c:v>
+                  <c:v>1.2/1.2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -258,37 +256,41 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$C$2:$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>工作表1!$C$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$3:$H$3</c:f>
+              <c:f>工作表1!$C$3:$I$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -308,7 +310,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NRCA</c:v>
+                  <c:v>1.2/1.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -339,37 +341,41 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$C$2:$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>工作表1!$C$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$4:$H$4</c:f>
+              <c:f>工作表1!$C$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -389,7 +395,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
+                  <c:v>1.2/1.7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -420,37 +426,41 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$C$2:$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>工作表1!$C$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$5:$H$5</c:f>
+              <c:f>工作表1!$C$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -470,7 +480,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>1.3/1.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -501,37 +511,41 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$C$2:$H$2</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>工作表1!$C$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$6:$H$6</c:f>
+              <c:f>工作表1!$C$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -539,6 +553,174 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-A47B-43E2-8680-0B4D495704B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.3/1.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-57A5-4A9F-A51A-1A66393D6077}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.7/1.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$C$2:$I$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$C$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-57A5-4A9F-A51A-1A66393D6077}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -679,7 +861,8 @@
         <c:axId val="350831880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="80000"/>
+          <c:max val="55000"/>
+          <c:min val="15000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -891,12 +1074,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$11</c:f>
+              <c:f>工作表1!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E-DSR</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -932,34 +1112,35 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>工作表1!$C$2:$H$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$11:$H$11</c:f>
+              <c:f>工作表1!$C$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -978,12 +1159,9 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$12</c:f>
+              <c:f>工作表1!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NRCA</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1013,34 +1191,35 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>工作表1!$C$2:$H$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$12:$H$12</c:f>
+              <c:f>工作表1!$C$10:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1059,12 +1238,9 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$13</c:f>
+              <c:f>工作表1!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1094,34 +1270,35 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>工作表1!$C$2:$H$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$13:$H$13</c:f>
+              <c:f>工作表1!$C$11:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1140,12 +1317,9 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$14</c:f>
+              <c:f>工作表1!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>my</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1175,34 +1349,35 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>工作表1!$C$2:$H$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$14:$H$14</c:f>
+              <c:f>工作表1!$C$12:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1565,12 +1740,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$19</c:f>
+              <c:f>工作表1!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E-DSR</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1606,34 +1778,35 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>工作表1!$C$2:$H$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$19:$H$19</c:f>
+              <c:f>工作表1!$C$15:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1652,12 +1825,9 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$20</c:f>
+              <c:f>工作表1!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NRCA</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1687,34 +1857,35 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>工作表1!$C$2:$H$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$20:$H$20</c:f>
+              <c:f>工作表1!$C$16:$H$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1733,12 +1904,9 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$21</c:f>
+              <c:f>工作表1!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1768,34 +1936,35 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>工作表1!$C$2:$H$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$21:$H$21</c:f>
+              <c:f>工作表1!$C$17:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1814,12 +1983,9 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$22</c:f>
+              <c:f>工作表1!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>my</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1849,34 +2015,35 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>工作表1!$C$2:$H$2</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$22:$H$22</c:f>
+              <c:f>工作表1!$C$18:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2239,11 +2406,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$3</c:f>
+              <c:f>工作表1!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>E-DSR</c:v>
+                  <c:v>1//3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2280,37 +2447,62 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$L$2:$Q$2</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>工作表1!$M$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$L$3:$Q$3</c:f>
+              <c:f>工作表1!$M$3:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>45144.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27941.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14056</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15447</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2326,11 +2518,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$4</c:f>
+              <c:f>工作表1!$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NRCA</c:v>
+                  <c:v>1//4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2361,37 +2553,62 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$L$2:$Q$2</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>工作表1!$M$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$L$4:$Q$4</c:f>
+              <c:f>工作表1!$M$4:$S$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>42919.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35270.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19184.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12421</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13866</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14119.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2407,11 +2624,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$5</c:f>
+              <c:f>工作表1!$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
+                  <c:v>2//3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2442,37 +2659,62 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$L$2:$Q$2</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>工作表1!$M$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$L$5:$Q$5</c:f>
+              <c:f>工作表1!$M$5:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>44251</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39336.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27167.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14356</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16133.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2488,11 +2730,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$6</c:f>
+              <c:f>工作表1!$L$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>my</c:v>
+                  <c:v>2//4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2523,37 +2765,62 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$L$2:$Q$2</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
+            <c:numRef>
+              <c:f>工作表1!$M$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$L$6:$Q$6</c:f>
+              <c:f>工作表1!$M$6:$S$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43258.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29174.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16967.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17893.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15306</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2561,6 +2828,110 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-30A8-469C-BCE8-1882F487D91E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$L$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2//2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$M$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$M$7:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>45020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26361.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19787.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16380.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14123.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4F76-43C6-9452-A211122162D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2701,7 +3072,8 @@
         <c:axId val="350831880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="80000"/>
+          <c:max val="50000"/>
+          <c:min val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2913,12 +3285,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$11</c:f>
+              <c:f>工作表1!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E-DSR</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2954,34 +3323,35 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$L$2:$Q$2</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>工作表1!$M$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$L$11:$Q$11</c:f>
+              <c:f>工作表1!$M$9:$R$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3000,12 +3370,9 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$12</c:f>
+              <c:f>工作表1!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NRCA</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3035,34 +3402,35 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$L$2:$Q$2</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>工作表1!$M$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$L$12:$Q$12</c:f>
+              <c:f>工作表1!$M$10:$R$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3081,12 +3449,9 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$13</c:f>
+              <c:f>工作表1!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3116,34 +3481,35 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$L$2:$Q$2</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>工作表1!$M$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$L$13:$Q$13</c:f>
+              <c:f>工作表1!$M$11:$R$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3162,12 +3528,9 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$14</c:f>
+              <c:f>工作表1!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>my</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3197,34 +3560,35 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$L$2:$Q$2</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>工作表1!$M$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$L$14:$Q$14</c:f>
+              <c:f>工作表1!$M$12:$R$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3587,12 +3951,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$19</c:f>
+              <c:f>工作表1!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E-DSR</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3628,34 +3989,35 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$L$2:$Q$2</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>工作表1!$M$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$L$19:$Q$19</c:f>
+              <c:f>工作表1!$M$15:$R$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3674,12 +4036,9 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$20</c:f>
+              <c:f>工作表1!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NRCA</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3709,34 +4068,35 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$L$2:$Q$2</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>工作表1!$M$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$L$20:$Q$20</c:f>
+              <c:f>工作表1!$M$16:$R$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3755,12 +4115,9 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$21</c:f>
+              <c:f>工作表1!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Optimal LEACH</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3790,34 +4147,35 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$L$2:$Q$2</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>工作表1!$M$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$L$21:$Q$21</c:f>
+              <c:f>工作表1!$M$17:$R$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3836,12 +4194,9 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$B$22</c:f>
+              <c:f>工作表1!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>my</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -3871,34 +4226,35 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>工作表1!$L$2:$Q$2</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>工作表1!$M$2:$R$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7/1.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$L$22:$Q$22</c:f>
+              <c:f>工作表1!$M$18:$R$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -7597,15 +7953,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>403412</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>120063</xdr:rowOff>
+      <xdr:colOff>298637</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>201705</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>29695</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>77880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7636,13 +7992,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>369794</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>100852</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>171289</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7674,13 +8030,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>358588</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>78440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>89646</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>160082</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7710,16 +8066,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>414618</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>347943</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>110378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>182495</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>179854</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>192020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7748,15 +8104,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>70437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>212911</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>152079</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7786,15 +8142,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>369794</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>59230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>201705</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>140872</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7826,9 +8182,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7866,9 +8222,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7901,9 +8257,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7936,9 +8309,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8112,404 +8502,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="8" width="9.75" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>14</v>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
+      <c r="C2" s="4">
+        <v>400</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+      <c r="D2" s="4">
+        <v>500</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4">
+        <v>600</v>
+      </c>
+      <c r="F2" s="4">
+        <v>700</v>
+      </c>
+      <c r="G2" s="4">
+        <v>800</v>
+      </c>
+      <c r="H2" s="4">
+        <v>900</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
+        <v>400</v>
+      </c>
+      <c r="N2" s="4">
+        <v>500</v>
+      </c>
+      <c r="O2" s="4">
+        <v>600</v>
+      </c>
+      <c r="P2" s="4">
+        <v>700</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>800</v>
+      </c>
+      <c r="R2" s="4">
+        <v>900</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>45144.5</v>
+      </c>
+      <c r="N3">
+        <v>37854</v>
+      </c>
+      <c r="O3">
+        <v>27941.5</v>
+      </c>
+      <c r="P3">
+        <v>19705</v>
+      </c>
+      <c r="Q3">
+        <v>16141</v>
+      </c>
+      <c r="R3">
+        <v>14056</v>
+      </c>
+      <c r="S3">
+        <v>15447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <v>42919.5</v>
+      </c>
+      <c r="N4">
+        <v>35270.5</v>
+      </c>
+      <c r="O4">
+        <v>27689</v>
+      </c>
+      <c r="P4">
+        <v>19184.5</v>
+      </c>
+      <c r="Q4">
+        <v>12421</v>
+      </c>
+      <c r="R4">
+        <v>13866</v>
+      </c>
+      <c r="S4">
+        <v>14119.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <v>44251</v>
+      </c>
+      <c r="N5">
+        <v>39336.5</v>
+      </c>
+      <c r="O5">
+        <v>27167.5</v>
+      </c>
+      <c r="P5">
+        <v>18778</v>
+      </c>
+      <c r="Q5">
+        <v>14356</v>
+      </c>
+      <c r="R5">
+        <v>14986</v>
+      </c>
+      <c r="S5">
+        <v>16133.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6">
+        <v>43258.5</v>
+      </c>
+      <c r="N6">
+        <v>38397</v>
+      </c>
+      <c r="O6">
+        <v>29174.5</v>
+      </c>
+      <c r="P6">
+        <v>23191</v>
+      </c>
+      <c r="Q6">
+        <v>16967.5</v>
+      </c>
+      <c r="R6">
+        <v>17893.5</v>
+      </c>
+      <c r="S6">
+        <v>15306</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7">
+        <v>45020</v>
+      </c>
+      <c r="N7">
+        <v>36151</v>
+      </c>
+      <c r="O7">
+        <v>26361.5</v>
+      </c>
+      <c r="P7">
+        <v>19787.5</v>
+      </c>
+      <c r="Q7">
+        <v>16380.5</v>
+      </c>
+      <c r="R7">
+        <v>14123.5</v>
+      </c>
+      <c r="S7">
+        <v>14175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="1"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="1"/>
     </row>
-    <row r="3" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1</v>
-      </c>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
-    <row r="4" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>2</v>
-      </c>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
-    <row r="5" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" t="s">
-        <v>3</v>
-      </c>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
-    <row r="6" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" t="s">
-        <v>4</v>
-      </c>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
     </row>
-    <row r="7" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="J7" s="2"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
-    <row r="8" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <f t="shared" ref="C9:H9" si="0">C6-C3</f>
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ref="L9:Q9" si="1">L6-L3</f>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>400</v>
-      </c>
-      <c r="D10" s="1">
-        <v>500</v>
-      </c>
-      <c r="E10" s="1">
-        <v>600</v>
-      </c>
-      <c r="F10" s="1">
-        <v>700</v>
-      </c>
-      <c r="G10" s="1">
-        <v>800</v>
-      </c>
-      <c r="H10" s="1">
-        <v>900</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>400</v>
-      </c>
-      <c r="M10" s="1">
-        <v>500</v>
-      </c>
-      <c r="N10" s="1">
-        <v>600</v>
-      </c>
-      <c r="O10" s="1">
-        <v>700</v>
-      </c>
-      <c r="P10" s="1">
-        <v>800</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>900</v>
-      </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <f>C14-C11</f>
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:H17" si="2">D14-D11</f>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f>L14-L11</f>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f t="shared" ref="M17:Q17" si="3">M14-M11</f>
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>400</v>
-      </c>
-      <c r="D18" s="1">
-        <v>500</v>
-      </c>
-      <c r="E18" s="1">
-        <v>600</v>
-      </c>
-      <c r="F18" s="1">
-        <v>700</v>
-      </c>
-      <c r="G18" s="1">
-        <v>800</v>
-      </c>
-      <c r="H18" s="1">
-        <v>900</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="1">
-        <v>400</v>
-      </c>
-      <c r="M18" s="1">
-        <v>500</v>
-      </c>
-      <c r="N18" s="1">
-        <v>600</v>
-      </c>
-      <c r="O18" s="1">
-        <v>700</v>
-      </c>
-      <c r="P18" s="1">
-        <v>800</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>900</v>
-      </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" t="s">
-        <v>4</v>
-      </c>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/test/output/Dth密度閥值.xlsx
+++ b/test/output/Dth密度閥值.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CE67CC-9D9F-4183-A5ED-1468F3F8F2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217EE32D-6A5A-4FA9-AFF7-54D3C00F4528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>AVG_LIFETIME</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -57,23 +57,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1//3</t>
+    <t>2//2(1.7-1.7)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1//4</t>
+    <t>2//3(1.2-1.7)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2//3</t>
+    <t>2//4(1.2-1.6)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2//4</t>
+    <t>1//2(1.7-1.7)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2//2</t>
+    <t>1//4(1.2-1.6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1//3(1.2-1.7)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -154,7 +158,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -291,6 +294,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>57638</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54480</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54066</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50679</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50086</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49861</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -376,6 +400,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>60282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59045</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58791</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59044</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56644</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -461,6 +506,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>64394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60889</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57433</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -546,6 +612,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>62311</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59054</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56811</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52523</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -629,6 +716,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>61825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59292</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57411</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57867</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54501</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -714,6 +822,27 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>69595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66656</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62053</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60741</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56891</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -861,8 +990,8 @@
         <c:axId val="350831880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="55000"/>
-          <c:min val="15000"/>
+          <c:max val="80000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2410,7 +2539,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1//3</c:v>
+                  <c:v>1//2(1.7-1.7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2483,25 +2612,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>45144.5</c:v>
+                  <c:v>35033</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37854</c:v>
+                  <c:v>32061</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27941.5</c:v>
+                  <c:v>30911</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19705</c:v>
+                  <c:v>28275</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16141</c:v>
+                  <c:v>25771</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14056</c:v>
+                  <c:v>26396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15447</c:v>
+                  <c:v>24938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2522,7 +2651,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1//4</c:v>
+                  <c:v>1//3(1.2-1.7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2589,25 +2718,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>42919.5</c:v>
+                  <c:v>34171</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35270.5</c:v>
+                  <c:v>32095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27689</c:v>
+                  <c:v>32201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19184.5</c:v>
+                  <c:v>28221</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12421</c:v>
+                  <c:v>25106</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13866</c:v>
+                  <c:v>25891</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14119.5</c:v>
+                  <c:v>25989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2628,7 +2757,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2//3</c:v>
+                  <c:v>1//4(1.2-1.6)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2695,25 +2824,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>44251</c:v>
+                  <c:v>36461</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39336.5</c:v>
+                  <c:v>34336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27167.5</c:v>
+                  <c:v>32675</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18778</c:v>
+                  <c:v>29626</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14356</c:v>
+                  <c:v>29491</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14986</c:v>
+                  <c:v>27216</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16133.5</c:v>
+                  <c:v>26851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2734,7 +2863,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2//4</c:v>
+                  <c:v>2//3(1.2-1.7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2801,25 +2930,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43258.5</c:v>
+                  <c:v>48605</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38397</c:v>
+                  <c:v>45103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29174.5</c:v>
+                  <c:v>39987</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23191</c:v>
+                  <c:v>38561</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16967.5</c:v>
+                  <c:v>36037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17893.5</c:v>
+                  <c:v>32415</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15306</c:v>
+                  <c:v>31446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2840,7 +2969,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2//2</c:v>
+                  <c:v>2//4(1.2-1.6)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2905,25 +3034,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>45020</c:v>
+                  <c:v>43413</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36151</c:v>
+                  <c:v>41881</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26361.5</c:v>
+                  <c:v>38923</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19787.5</c:v>
+                  <c:v>35748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16380.5</c:v>
+                  <c:v>33171</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14123.5</c:v>
+                  <c:v>29922</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14175</c:v>
+                  <c:v>26536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2932,6 +3061,112 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-4F76-43C6-9452-A211122162D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2//2(1.7-1.7)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$M$2:$S$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$M$8:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>40337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36241</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33065</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27639</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23691</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBE0-4D3B-8E45-ED60A811E360}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3072,8 +3307,8 @@
         <c:axId val="350831880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="50000"/>
-          <c:min val="10000"/>
+          <c:max val="80000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8504,8 +8739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:S6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -8581,90 +8816,153 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>57638</v>
+      </c>
+      <c r="D3">
+        <v>54480</v>
+      </c>
+      <c r="E3">
+        <v>54066</v>
+      </c>
+      <c r="F3">
+        <v>53389</v>
+      </c>
+      <c r="G3">
+        <v>50679</v>
+      </c>
+      <c r="H3">
+        <v>50086</v>
+      </c>
+      <c r="I3">
+        <v>49861</v>
+      </c>
       <c r="K3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="7" t="s">
-        <v>10</v>
+      <c r="L3" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>45144.5</v>
+        <v>35033</v>
       </c>
       <c r="N3">
-        <v>37854</v>
+        <v>32061</v>
       </c>
       <c r="O3">
-        <v>27941.5</v>
+        <v>30911</v>
       </c>
       <c r="P3">
-        <v>19705</v>
+        <v>28275</v>
       </c>
       <c r="Q3">
-        <v>16141</v>
+        <v>25771</v>
       </c>
       <c r="R3">
-        <v>14056</v>
+        <v>26396</v>
       </c>
       <c r="S3">
-        <v>15447</v>
+        <v>24938</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
+      <c r="C4">
+        <v>60282</v>
+      </c>
+      <c r="D4">
+        <v>59736</v>
+      </c>
+      <c r="E4">
+        <v>59045</v>
+      </c>
+      <c r="F4">
+        <v>58791</v>
+      </c>
+      <c r="G4">
+        <v>59044</v>
+      </c>
+      <c r="H4">
+        <v>57151</v>
+      </c>
+      <c r="I4">
+        <v>56644</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="M4">
-        <v>42919.5</v>
+        <v>34171</v>
       </c>
       <c r="N4">
-        <v>35270.5</v>
+        <v>32095</v>
       </c>
       <c r="O4">
-        <v>27689</v>
+        <v>32201</v>
       </c>
       <c r="P4">
-        <v>19184.5</v>
+        <v>28221</v>
       </c>
       <c r="Q4">
-        <v>12421</v>
+        <v>25106</v>
       </c>
       <c r="R4">
-        <v>13866</v>
+        <v>25891</v>
       </c>
       <c r="S4">
-        <v>14119.5</v>
+        <v>25989</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="s">
-        <v>12</v>
+      <c r="C5">
+        <v>64394</v>
+      </c>
+      <c r="D5">
+        <v>62623</v>
+      </c>
+      <c r="E5">
+        <v>60889</v>
+      </c>
+      <c r="F5">
+        <v>59763</v>
+      </c>
+      <c r="G5">
+        <v>57328</v>
+      </c>
+      <c r="H5">
+        <v>57433</v>
+      </c>
+      <c r="I5">
+        <v>56024</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="M5">
-        <v>44251</v>
+        <v>36461</v>
       </c>
       <c r="N5">
-        <v>39336.5</v>
+        <v>34336</v>
       </c>
       <c r="O5">
-        <v>27167.5</v>
+        <v>32675</v>
       </c>
       <c r="P5">
-        <v>18778</v>
+        <v>29626</v>
       </c>
       <c r="Q5">
-        <v>14356</v>
+        <v>29491</v>
       </c>
       <c r="R5">
-        <v>14986</v>
+        <v>27216</v>
       </c>
       <c r="S5">
-        <v>16133.5</v>
+        <v>26851</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -8672,30 +8970,51 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>62311</v>
+      </c>
+      <c r="D6">
+        <v>60207</v>
+      </c>
+      <c r="E6">
+        <v>59781</v>
+      </c>
+      <c r="F6">
+        <v>59054</v>
+      </c>
+      <c r="G6">
+        <v>56811</v>
+      </c>
+      <c r="H6">
+        <v>55187</v>
+      </c>
+      <c r="I6">
+        <v>52523</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M6">
-        <v>43258.5</v>
+        <v>48605</v>
       </c>
       <c r="N6">
-        <v>38397</v>
+        <v>45103</v>
       </c>
       <c r="O6">
-        <v>29174.5</v>
+        <v>39987</v>
       </c>
       <c r="P6">
-        <v>23191</v>
+        <v>38561</v>
       </c>
       <c r="Q6">
-        <v>16967.5</v>
+        <v>36037</v>
       </c>
       <c r="R6">
-        <v>17893.5</v>
+        <v>32415</v>
       </c>
       <c r="S6">
-        <v>15306</v>
+        <v>31446</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -8703,51 +9022,103 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
+      <c r="C7">
+        <v>61825</v>
+      </c>
+      <c r="D7">
+        <v>61654</v>
+      </c>
+      <c r="E7">
+        <v>59292</v>
+      </c>
+      <c r="F7">
+        <v>60326</v>
+      </c>
+      <c r="G7">
+        <v>57411</v>
+      </c>
+      <c r="H7">
+        <v>57867</v>
+      </c>
+      <c r="I7">
+        <v>54501</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M7">
-        <v>45020</v>
+        <v>43413</v>
       </c>
       <c r="N7">
-        <v>36151</v>
+        <v>41881</v>
       </c>
       <c r="O7">
-        <v>26361.5</v>
+        <v>38923</v>
       </c>
       <c r="P7">
-        <v>19787.5</v>
+        <v>35748</v>
       </c>
       <c r="Q7">
-        <v>16380.5</v>
+        <v>33171</v>
       </c>
       <c r="R7">
-        <v>14123.5</v>
+        <v>29922</v>
       </c>
       <c r="S7">
-        <v>14175</v>
+        <v>26536</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
+      <c r="C8" s="5">
+        <v>69595</v>
+      </c>
+      <c r="D8" s="5">
+        <v>66656</v>
+      </c>
+      <c r="E8" s="5">
+        <v>65558</v>
+      </c>
+      <c r="F8" s="5">
+        <v>63021</v>
+      </c>
+      <c r="G8" s="5">
+        <v>62053</v>
+      </c>
+      <c r="H8" s="5">
+        <v>60741</v>
+      </c>
+      <c r="I8" s="5">
+        <v>56891</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="5">
+        <v>40337</v>
+      </c>
+      <c r="N8" s="5">
+        <v>36241</v>
+      </c>
+      <c r="O8" s="5">
+        <v>33198</v>
+      </c>
+      <c r="P8" s="5">
+        <v>33065</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>27639</v>
+      </c>
+      <c r="R8" s="5">
+        <v>26672</v>
+      </c>
+      <c r="S8" s="5">
+        <v>23691</v>
+      </c>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">

--- a/test/output/Dth密度閥值.xlsx
+++ b/test/output/Dth密度閥值.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217EE32D-6A5A-4FA9-AFF7-54D3C00F4528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5AE279-E8DC-4572-A0C1-FA46F3E4D263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="3330" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,35 +25,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.2/1.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2/1.6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.2/1.7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3/1.6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>special</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>special2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.3/1.7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.7/1.7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -79,6 +55,24 @@
   <si>
     <t>1//3(1.2-1.7)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4//4(1.2/1.2)</t>
+  </si>
+  <si>
+    <t>3//4(1.2/1.6)</t>
+  </si>
+  <si>
+    <t>3//3(1.2/1.7)</t>
+  </si>
+  <si>
+    <t>2//4(1.3/1.6)</t>
+  </si>
+  <si>
+    <t>2//3(1.3/1.7)</t>
+  </si>
+  <si>
+    <t>2//2(1.7/1.7)</t>
   </si>
 </sst>
 </file>
@@ -222,7 +216,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.2</c:v>
+                  <c:v>4//4(1.2/1.2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -334,7 +328,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.6</c:v>
+                  <c:v>3//4(1.2/1.6)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -440,7 +434,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.2/1.7</c:v>
+                  <c:v>3//3(1.2/1.7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -546,7 +540,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.3/1.6</c:v>
+                  <c:v>2//4(1.3/1.6)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -652,7 +646,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.3/1.7</c:v>
+                  <c:v>2//3(1.3/1.7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -756,7 +750,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.7/1.7</c:v>
+                  <c:v>2//2(1.7/1.7)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8740,23 +8734,24 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:I8"/>
+      <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="8" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="8" width="9.75" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="12" max="12" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -8814,7 +8809,7 @@
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>57638</v>
@@ -8841,7 +8836,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M3">
         <v>35033</v>
@@ -8867,7 +8862,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>60282</v>
@@ -8891,7 +8886,7 @@
         <v>56644</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <v>34171</v>
@@ -8917,7 +8912,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>64394</v>
@@ -8941,7 +8936,7 @@
         <v>56024</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M5">
         <v>36461</v>
@@ -8968,7 +8963,7 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>62311</v>
@@ -8993,7 +8988,7 @@
       </c>
       <c r="K6" s="2"/>
       <c r="L6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M6">
         <v>48605</v>
@@ -9020,7 +9015,7 @@
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>61825</v>
@@ -9045,7 +9040,7 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>43413</v>
@@ -9071,7 +9066,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5">
         <v>69595</v>
@@ -9096,7 +9091,7 @@
       </c>
       <c r="J8" s="1"/>
       <c r="L8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M8" s="5">
         <v>40337</v>

--- a/test/output/Dth密度閥值.xlsx
+++ b/test/output/Dth密度閥值.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BFC2B7-3F76-4FD3-B712-9BC72B60E0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC623B6-261D-4DA4-A7BA-3F563BDAB654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>AVG_LIFETIME</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -30,30 +30,6 @@
   </si>
   <si>
     <t>special2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2//2(1.7-1.7)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2//3(1.2-1.7)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2//4(1.2-1.6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1//2(1.7-1.7)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1//4(1.2-1.6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1//3(1.2-1.7)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -73,6 +49,50 @@
   </si>
   <si>
     <t>2//2(1.7/1.7)</t>
+  </si>
+  <si>
+    <t>1//2(0.7/1.7/1.7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1//3(0.7/1.2/1.7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2//3(0.3/1.2/1.7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2//4(0.3/1.2/1.6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2//2(0.3/1.7/1.7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case 3</t>
+  </si>
+  <si>
+    <t>Case 4</t>
+  </si>
+  <si>
+    <t>Case 5</t>
+  </si>
+  <si>
+    <t>Case 6</t>
+  </si>
+  <si>
+    <t>1//4(0.7/1.2/1.6)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -200,7 +220,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.15483877245752825"/>
           <c:y val="4.2995278213612362E-2"/>
-          <c:w val="0.63563185385640242"/>
+          <c:w val="0.68636125045640228"/>
           <c:h val="0.82779698596021045"/>
         </c:manualLayout>
       </c:layout>
@@ -216,7 +236,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4//4(1.2/1.2)</c:v>
+                  <c:v>Case 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -328,7 +348,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3//4(1.2/1.6)</c:v>
+                  <c:v>Case 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -434,7 +454,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3//3(1.2/1.7)</c:v>
+                  <c:v>Case 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -540,7 +560,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2//4(1.3/1.6)</c:v>
+                  <c:v>Case 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -607,25 +627,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>62311</c:v>
+                  <c:v>69595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60207</c:v>
+                  <c:v>66656</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59781</c:v>
+                  <c:v>65558</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>59054</c:v>
+                  <c:v>63021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56811</c:v>
+                  <c:v>62053</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55187</c:v>
+                  <c:v>60741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52523</c:v>
+                  <c:v>56891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -646,7 +666,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2//3(1.3/1.7)</c:v>
+                  <c:v>Case 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -750,7 +770,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2//2(1.7/1.7)</c:v>
+                  <c:v>Case 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -817,25 +837,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>69595</c:v>
+                  <c:v>62311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66656</c:v>
+                  <c:v>60207</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65558</c:v>
+                  <c:v>59781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63021</c:v>
+                  <c:v>59054</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62053</c:v>
+                  <c:v>56811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60741</c:v>
+                  <c:v>55187</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56891</c:v>
+                  <c:v>52523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,6 +1111,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.85063914070327074"/>
+          <c:y val="0.30730172903644776"/>
+          <c:w val="0.13808764935523751"/>
+          <c:h val="0.38539654192710449"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1192,11 +1222,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$L$3</c:f>
+              <c:f>工作表1!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1//2(1.7-1.7)</c:v>
+                  <c:v>Case 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1234,7 +1264,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$M$2:$S$2</c:f>
+              <c:f>工作表1!$N$2:$T$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1264,7 +1294,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$M$3:$S$3</c:f>
+              <c:f>工作表1!$N$3:$T$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1304,11 +1334,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$L$4</c:f>
+              <c:f>工作表1!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1//3(1.2-1.7)</c:v>
+                  <c:v>Case 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1340,7 +1370,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$M$2:$S$2</c:f>
+              <c:f>工作表1!$N$2:$T$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1370,7 +1400,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$M$4:$S$4</c:f>
+              <c:f>工作表1!$N$4:$T$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1410,11 +1440,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$L$5</c:f>
+              <c:f>工作表1!$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1//4(1.2-1.6)</c:v>
+                  <c:v>Case 3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1446,7 +1476,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$M$2:$S$2</c:f>
+              <c:f>工作表1!$N$2:$T$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1476,7 +1506,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$M$5:$S$5</c:f>
+              <c:f>工作表1!$N$5:$T$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1516,11 +1546,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$L$6</c:f>
+              <c:f>工作表1!$M$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2//3(1.2-1.7)</c:v>
+                  <c:v>Case 4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1552,7 +1582,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$M$2:$S$2</c:f>
+              <c:f>工作表1!$N$2:$T$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1582,30 +1612,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$M$6:$S$6</c:f>
+              <c:f>工作表1!$N$6:$T$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>48605</c:v>
+                  <c:v>40337</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45103</c:v>
+                  <c:v>36241</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39987</c:v>
+                  <c:v>33198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38561</c:v>
+                  <c:v>33065</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36037</c:v>
+                  <c:v>27639</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32415</c:v>
+                  <c:v>26672</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31446</c:v>
+                  <c:v>23691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1622,11 +1652,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$L$7</c:f>
+              <c:f>工作表1!$M$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2//4(1.2-1.6)</c:v>
+                  <c:v>Case 5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1656,7 +1686,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$M$2:$S$2</c:f>
+              <c:f>工作表1!$N$2:$T$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1686,30 +1716,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$M$7:$S$7</c:f>
+              <c:f>工作表1!$N$7:$T$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43413</c:v>
+                  <c:v>48605</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41881</c:v>
+                  <c:v>45103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38923</c:v>
+                  <c:v>39987</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35748</c:v>
+                  <c:v>38561</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33171</c:v>
+                  <c:v>36037</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29922</c:v>
+                  <c:v>32415</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26536</c:v>
+                  <c:v>31446</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,11 +1756,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$L$8</c:f>
+              <c:f>工作表1!$M$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2//2(1.7-1.7)</c:v>
+                  <c:v>Case 6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1762,7 +1792,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$M$2:$S$2</c:f>
+              <c:f>工作表1!$N$2:$T$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1792,30 +1822,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$M$8:$S$8</c:f>
+              <c:f>工作表1!$N$8:$T$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40337</c:v>
+                  <c:v>43413</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36241</c:v>
+                  <c:v>41881</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33198</c:v>
+                  <c:v>38923</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33065</c:v>
+                  <c:v>35748</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27639</c:v>
+                  <c:v>33171</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26672</c:v>
+                  <c:v>29922</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23691</c:v>
+                  <c:v>26536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3264,13 +3294,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>298637</xdr:colOff>
+      <xdr:colOff>298638</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
@@ -3301,13 +3331,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>347943</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>110378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>179854</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>192020</xdr:rowOff>
@@ -3661,30 +3691,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="8" width="9.75" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="8" width="9.77734375" customWidth="1"/>
+    <col min="10" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="22.2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3710,36 +3741,37 @@
         <v>1000</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="4">
+      <c r="N2" s="4">
         <v>400</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>500</v>
       </c>
-      <c r="O2" s="4">
+      <c r="P2" s="4">
         <v>600</v>
       </c>
-      <c r="P2" s="4">
+      <c r="Q2" s="4">
         <v>700</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="R2" s="4">
         <v>800</v>
       </c>
-      <c r="R2" s="4">
+      <c r="S2" s="4">
         <v>900</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>1000</v>
       </c>
-      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>57638</v>
@@ -3762,37 +3794,43 @@
       <c r="I3">
         <v>49861</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="J3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3">
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3">
         <v>35033</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>32061</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>30911</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>28275</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>25771</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>26396</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>24938</v>
       </c>
+      <c r="U3" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>60282</v>
@@ -3815,34 +3853,40 @@
       <c r="I4">
         <v>56644</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4">
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4">
         <v>34171</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>32095</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>32201</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>28221</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>25106</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>25891</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>25989</v>
       </c>
+      <c r="U4" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>64394</v>
@@ -3865,87 +3909,99 @@
       <c r="I5">
         <v>56024</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5">
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5">
         <v>36461</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>34336</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>32675</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>29626</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>29491</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>27216</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>26851</v>
       </c>
+      <c r="U5" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>62311</v>
-      </c>
-      <c r="D6">
-        <v>60207</v>
-      </c>
-      <c r="E6">
-        <v>59781</v>
-      </c>
-      <c r="F6">
-        <v>59054</v>
-      </c>
-      <c r="G6">
-        <v>56811</v>
-      </c>
-      <c r="H6">
-        <v>55187</v>
-      </c>
-      <c r="I6">
-        <v>52523</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6">
-        <v>48605</v>
-      </c>
-      <c r="N6">
-        <v>45103</v>
-      </c>
-      <c r="O6">
-        <v>39987</v>
-      </c>
-      <c r="P6">
-        <v>38561</v>
-      </c>
-      <c r="Q6">
-        <v>36037</v>
-      </c>
-      <c r="R6">
-        <v>32415</v>
-      </c>
-      <c r="S6">
-        <v>31446</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="5">
+        <v>69595</v>
+      </c>
+      <c r="D6" s="5">
+        <v>66656</v>
+      </c>
+      <c r="E6" s="5">
+        <v>65558</v>
+      </c>
+      <c r="F6" s="5">
+        <v>63021</v>
+      </c>
+      <c r="G6" s="5">
+        <v>62053</v>
+      </c>
+      <c r="H6" s="5">
+        <v>60741</v>
+      </c>
+      <c r="I6" s="5">
+        <v>56891</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="5">
+        <v>40337</v>
+      </c>
+      <c r="O6" s="5">
+        <v>36241</v>
+      </c>
+      <c r="P6" s="5">
+        <v>33198</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>33065</v>
+      </c>
+      <c r="R6" s="5">
+        <v>27639</v>
+      </c>
+      <c r="S6" s="5">
+        <v>26672</v>
+      </c>
+      <c r="T6" s="5">
+        <v>23691</v>
+      </c>
+      <c r="U6" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>61825</v>
@@ -3968,97 +4024,107 @@
       <c r="I7">
         <v>54501</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7">
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7">
+        <v>48605</v>
+      </c>
+      <c r="O7">
+        <v>45103</v>
+      </c>
+      <c r="P7">
+        <v>39987</v>
+      </c>
+      <c r="Q7">
+        <v>38561</v>
+      </c>
+      <c r="R7">
+        <v>36037</v>
+      </c>
+      <c r="S7">
+        <v>32415</v>
+      </c>
+      <c r="T7">
+        <v>31446</v>
+      </c>
+      <c r="U7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>62311</v>
+      </c>
+      <c r="D8">
+        <v>60207</v>
+      </c>
+      <c r="E8">
+        <v>59781</v>
+      </c>
+      <c r="F8">
+        <v>59054</v>
+      </c>
+      <c r="G8">
+        <v>56811</v>
+      </c>
+      <c r="H8">
+        <v>55187</v>
+      </c>
+      <c r="I8">
+        <v>52523</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8">
         <v>43413</v>
       </c>
-      <c r="N7">
+      <c r="O8">
         <v>41881</v>
       </c>
-      <c r="O7">
+      <c r="P8">
         <v>38923</v>
       </c>
-      <c r="P7">
+      <c r="Q8">
         <v>35748</v>
       </c>
-      <c r="Q7">
+      <c r="R8">
         <v>33171</v>
       </c>
-      <c r="R7">
+      <c r="S8">
         <v>29922</v>
       </c>
-      <c r="S7">
+      <c r="T8">
         <v>26536</v>
       </c>
+      <c r="U8" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5">
-        <v>69595</v>
-      </c>
-      <c r="D8" s="5">
-        <v>66656</v>
-      </c>
-      <c r="E8" s="5">
-        <v>65558</v>
-      </c>
-      <c r="F8" s="5">
-        <v>63021</v>
-      </c>
-      <c r="G8" s="5">
-        <v>62053</v>
-      </c>
-      <c r="H8" s="5">
-        <v>60741</v>
-      </c>
-      <c r="I8" s="5">
-        <v>56891</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="L8" t="s">
-        <v>4</v>
-      </c>
-      <c r="M8" s="5">
-        <v>40337</v>
-      </c>
-      <c r="N8" s="5">
-        <v>36241</v>
-      </c>
-      <c r="O8" s="5">
-        <v>33198</v>
-      </c>
-      <c r="P8" s="5">
-        <v>33065</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>27639</v>
-      </c>
-      <c r="R8" s="5">
-        <v>26672</v>
-      </c>
-      <c r="S8" s="5">
-        <v>23691</v>
-      </c>
-      <c r="T8" s="1"/>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="L9" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="K9" s="1"/>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="K12" s="2"/>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -4067,22 +4133,32 @@
       <c r="H14" s="4"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="M14" s="4"/>
+      <c r="K14" s="1"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="1"/>
+      <c r="S14" s="4"/>
       <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
